--- a/Lab2/SIM_Lab2.xlsx
+++ b/Lab2/SIM_Lab2.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Storage</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Minimize</t>
+  </si>
+  <si>
+    <t>slope</t>
   </si>
 </sst>
 </file>
@@ -377,23 +380,76 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0"/>
+              <a:t>correlation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+              <a:t> constraint and optimal function</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12333848594347314"/>
+          <c:y val="0.15090141915276778"/>
+          <c:w val="0.78041900715493162"/>
+          <c:h val="0.67422974842765171"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:val>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.720253812120649E-2"/>
+                  <c:y val="2.8933897579291462E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Primal Problem'!$A$23:$A$33</c:f>
               <c:numCache>
@@ -434,15 +490,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Primal Problem'!$B$23:$B$33</c:f>
+              <c:f>'Primal Problem'!$C$23:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -481,7 +532,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -492,50 +543,309 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="138642944"/>
-        <c:axId val="449537152"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="138642944"/>
+        <c:axId val="360362496"/>
+        <c:axId val="360363072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="360362496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>raw</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> material units</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449537152"/>
+        <c:crossAx val="360363072"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="449537152"/>
+        <c:axId val="360363072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>objective value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138642944"/>
+        <c:crossAx val="360362496"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0"/>
+              <a:t>sensitivity analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38736261206085126"/>
+          <c:y val="4.7709278440364905E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Primal Problem'!$A$23:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Primal Problem'!$B$23:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>2.1426666666666887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1433333333333091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1426666666666887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1426666666666279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1426666666666887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1433333333333091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1426666666666887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6153333333333042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6153333333333648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6153333333333042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="648701056"/>
+        <c:axId val="367203392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="648701056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>raw material units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="367203392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367203392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>shadow price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="648701056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -552,20 +862,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>538443</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>519393</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70597</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -575,6 +885,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297236</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1121,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1599,10 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1267,7 +1610,7 @@
       <c r="A23">
         <v>1575</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>4335</v>
       </c>
     </row>
@@ -1276,6 +1619,10 @@
         <v>1590</v>
       </c>
       <c r="B24">
+        <f>(C24-C23)/(A24-A23)</f>
+        <v>2.1426666666666887</v>
+      </c>
+      <c r="C24">
         <v>4367.1400000000003</v>
       </c>
     </row>
@@ -1284,6 +1631,10 @@
         <v>1605</v>
       </c>
       <c r="B25">
+        <f>(C25-C24)/(A25-A24)</f>
+        <v>2.1433333333333091</v>
+      </c>
+      <c r="C25">
         <v>4399.29</v>
       </c>
     </row>
@@ -1292,6 +1643,10 @@
         <v>1620</v>
       </c>
       <c r="B26">
+        <f>(C26-C25)/(A26-A25)</f>
+        <v>2.1426666666666887</v>
+      </c>
+      <c r="C26">
         <v>4431.43</v>
       </c>
     </row>
@@ -1300,6 +1655,10 @@
         <v>1635</v>
       </c>
       <c r="B27">
+        <f>(C27-C26)/(A27-A26)</f>
+        <v>2.1426666666666279</v>
+      </c>
+      <c r="C27">
         <v>4463.57</v>
       </c>
     </row>
@@ -1308,6 +1667,10 @@
         <v>1650</v>
       </c>
       <c r="B28">
+        <f>(C28-C27)/(A28-A27)</f>
+        <v>2.1426666666666887</v>
+      </c>
+      <c r="C28">
         <v>4495.71</v>
       </c>
     </row>
@@ -1316,6 +1679,10 @@
         <v>1665</v>
       </c>
       <c r="B29">
+        <f>(C29-C28)/(A29-A28)</f>
+        <v>2.1433333333333091</v>
+      </c>
+      <c r="C29">
         <v>4527.8599999999997</v>
       </c>
     </row>
@@ -1324,6 +1691,10 @@
         <v>1680</v>
       </c>
       <c r="B30">
+        <f>(C30-C29)/(A30-A29)</f>
+        <v>2.1426666666666887</v>
+      </c>
+      <c r="C30">
         <v>4560</v>
       </c>
     </row>
@@ -1332,6 +1703,10 @@
         <v>1695</v>
       </c>
       <c r="B31">
+        <f>(C31-C30)/(A31-A30)</f>
+        <v>1.6153333333333042</v>
+      </c>
+      <c r="C31">
         <v>4584.2299999999996</v>
       </c>
     </row>
@@ -1340,14 +1715,22 @@
         <v>1710</v>
       </c>
       <c r="B32">
+        <f>(C32-C31)/(A32-A31)</f>
+        <v>1.6153333333333648</v>
+      </c>
+      <c r="C32">
         <v>4608.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1725</v>
       </c>
       <c r="B33">
+        <f>(C33-C32)/(A33-A32)</f>
+        <v>1.6153333333333042</v>
+      </c>
+      <c r="C33">
         <v>4632.6899999999996</v>
       </c>
     </row>

--- a/Lab2/SIM_Lab2.xlsx
+++ b/Lab2/SIM_Lab2.xlsx
@@ -543,11 +543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360362496"/>
-        <c:axId val="360363072"/>
+        <c:axId val="213351168"/>
+        <c:axId val="213351744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360362496"/>
+        <c:axId val="213351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,12 +581,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360363072"/>
+        <c:crossAx val="213351744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360363072"/>
+        <c:axId val="213351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360362496"/>
+        <c:crossAx val="213351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -773,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648701056"/>
-        <c:axId val="367203392"/>
+        <c:axId val="298566784"/>
+        <c:axId val="298567360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648701056"/>
+        <c:axId val="298566784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,12 +806,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367203392"/>
+        <c:crossAx val="298567360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367203392"/>
+        <c:axId val="298567360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648701056"/>
+        <c:crossAx val="298566784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1619,7 @@
         <v>1590</v>
       </c>
       <c r="B24">
-        <f>(C24-C23)/(A24-A23)</f>
+        <f t="shared" ref="B24:B33" si="0">(C24-C23)/(A24-A23)</f>
         <v>2.1426666666666887</v>
       </c>
       <c r="C24">
@@ -1631,7 +1631,7 @@
         <v>1605</v>
       </c>
       <c r="B25">
-        <f>(C25-C24)/(A25-A24)</f>
+        <f t="shared" si="0"/>
         <v>2.1433333333333091</v>
       </c>
       <c r="C25">
@@ -1643,7 +1643,7 @@
         <v>1620</v>
       </c>
       <c r="B26">
-        <f>(C26-C25)/(A26-A25)</f>
+        <f t="shared" si="0"/>
         <v>2.1426666666666887</v>
       </c>
       <c r="C26">
@@ -1655,7 +1655,7 @@
         <v>1635</v>
       </c>
       <c r="B27">
-        <f>(C27-C26)/(A27-A26)</f>
+        <f t="shared" si="0"/>
         <v>2.1426666666666279</v>
       </c>
       <c r="C27">
@@ -1667,7 +1667,7 @@
         <v>1650</v>
       </c>
       <c r="B28">
-        <f>(C28-C27)/(A28-A27)</f>
+        <f t="shared" si="0"/>
         <v>2.1426666666666887</v>
       </c>
       <c r="C28">
@@ -1679,7 +1679,7 @@
         <v>1665</v>
       </c>
       <c r="B29">
-        <f>(C29-C28)/(A29-A28)</f>
+        <f t="shared" si="0"/>
         <v>2.1433333333333091</v>
       </c>
       <c r="C29">
@@ -1691,7 +1691,7 @@
         <v>1680</v>
       </c>
       <c r="B30">
-        <f>(C30-C29)/(A30-A29)</f>
+        <f t="shared" si="0"/>
         <v>2.1426666666666887</v>
       </c>
       <c r="C30">
@@ -1703,7 +1703,7 @@
         <v>1695</v>
       </c>
       <c r="B31">
-        <f>(C31-C30)/(A31-A30)</f>
+        <f t="shared" si="0"/>
         <v>1.6153333333333042</v>
       </c>
       <c r="C31">
@@ -1715,7 +1715,7 @@
         <v>1710</v>
       </c>
       <c r="B32">
-        <f>(C32-C31)/(A32-A31)</f>
+        <f t="shared" si="0"/>
         <v>1.6153333333333648</v>
       </c>
       <c r="C32">
@@ -1727,7 +1727,7 @@
         <v>1725</v>
       </c>
       <c r="B33">
-        <f>(C33-C32)/(A33-A32)</f>
+        <f t="shared" si="0"/>
         <v>1.6153333333333042</v>
       </c>
       <c r="C33">

--- a/Lab2/SIM_Lab2.xlsx
+++ b/Lab2/SIM_Lab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19155" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19155" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="4" r:id="rId1"/>
@@ -25,17 +25,18 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Primal Problem'!$C$16</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$C$14:$C$20</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Primal Problem'!$C$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$10</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Primal Problem'!$F$5</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$5</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$4</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Primal Problem'!$F$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$5</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Primal Problem'!$F$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$7</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$8</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$6</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$8</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$9</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
@@ -49,7 +50,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Primal Problem'!$C$10</definedName>
@@ -59,7 +60,7 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
@@ -70,18 +71,20 @@
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$10</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Primal Problem'!$G$5</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$5</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$4</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Primal Problem'!$G$6</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$5</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Primal Problem'!$G$7</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$7</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$8</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$9</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$8</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$9</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
@@ -543,11 +546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213351168"/>
-        <c:axId val="213351744"/>
+        <c:axId val="213744384"/>
+        <c:axId val="213744960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213351168"/>
+        <c:axId val="213744384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,12 +584,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213351744"/>
+        <c:crossAx val="213744960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213351744"/>
+        <c:axId val="213744960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213351168"/>
+        <c:crossAx val="213744384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -773,11 +776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298566784"/>
-        <c:axId val="298567360"/>
+        <c:axId val="344097920"/>
+        <c:axId val="344098496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298566784"/>
+        <c:axId val="344097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,12 +809,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298567360"/>
+        <c:crossAx val="344098496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298567360"/>
+        <c:axId val="344098496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298566784"/>
+        <c:crossAx val="344097920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -863,15 +866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>300123</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>168574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
+      <xdr:colOff>8771</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>123262</xdr:rowOff>
+      <xdr:rowOff>90131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1213,7 +1216,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1420,7 @@
         <v>1575</v>
       </c>
       <c r="E16" s="3">
-        <v>2.1428571428571428</v>
+        <v>2.1428571428571401</v>
       </c>
       <c r="F16" s="3">
         <v>1575</v>
@@ -1461,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1474,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1744,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1768,7 @@
       </c>
       <c r="L3">
         <f>SUM(C14:C20)</f>
-        <v>9.3333333333333339</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,7 +1810,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>SUM(C14:C18)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1816,7 +1819,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>SUM(C15:C19)</f>
-        <v>8.6666666666666661</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1825,7 +1828,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>SUM(C16:C20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1836,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.33333333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,7 +1855,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1884,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/SIM_Lab2.xlsx
+++ b/Lab2/SIM_Lab2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19155" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19155" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="4" r:id="rId1"/>
@@ -25,17 +25,18 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Primal Problem'!$C$16</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$C$14:$C$20</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Primal Problem'!$C$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$10</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Primal Problem'!$F$5</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$5</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$4</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Primal Problem'!$F$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$5</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Primal Problem'!$F$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$7</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$8</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$6</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$8</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$E$9</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
@@ -49,7 +50,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Primal Problem'!$C$10</definedName>
@@ -59,7 +60,7 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
@@ -70,18 +71,20 @@
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$10</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Primal Problem'!$G$5</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$5</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$4</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Primal Problem'!$G$6</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$5</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Primal Problem'!$G$7</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$7</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$8</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$9</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$8</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Staff Scheduling Problem'!$F$9</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
@@ -103,12 +106,12 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Storage</t>
   </si>
@@ -249,6 +252,15 @@
   </si>
   <si>
     <t>slope</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>constraints</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -408,7 +420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -543,11 +554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213351168"/>
-        <c:axId val="213351744"/>
+        <c:axId val="206751424"/>
+        <c:axId val="206752000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213351168"/>
+        <c:axId val="206751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,19 +585,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213351744"/>
+        <c:crossAx val="206752000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213351744"/>
+        <c:axId val="206752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,14 +619,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213351168"/>
+        <c:crossAx val="206751424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -636,7 +645,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -773,11 +782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298566784"/>
-        <c:axId val="298567360"/>
+        <c:axId val="206753728"/>
+        <c:axId val="206754304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298566784"/>
+        <c:axId val="206753728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,19 +808,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298567360"/>
+        <c:crossAx val="206754304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298567360"/>
+        <c:axId val="206754304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,14 +842,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298566784"/>
+        <c:crossAx val="206753728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,13 +1751,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1760,12 +1768,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L3">
         <f>SUM(C14:C20)</f>
-        <v>9.3333333333333339</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,7 +1818,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>SUM(C14:C18)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1816,7 +1827,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>SUM(C15:C19)</f>
-        <v>8.6666666666666661</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1825,10 +1836,18 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>SUM(C16:C20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1836,8 +1855,12 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.33333333333333337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1846,46 +1869,70 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0.33333333333333331</v>
       </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
